--- a/Primer Punto/Documentacion/Prueba Funcionales.xlsx
+++ b/Primer Punto/Documentacion/Prueba Funcionales.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperMao\Documents\GitHub\Project-Fada\Primer Punto\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natha9404/Documents/FADA/Proyecto-Analisis-de-Algoritmos/Primer Punto/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22760" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Numero de registro de entradas</t>
   </si>
@@ -59,12 +62,18 @@
   <si>
     <t>Numero de Rejisttros</t>
   </si>
+  <si>
+    <t>Numero de registro de entradas2</t>
+  </si>
+  <si>
+    <t>Numero de Iteraciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +81,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -89,11 +145,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -105,11 +196,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -141,7 +287,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,7 +319,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Analizis ráfico</a:t>
+              <a:t>Analizis Gráfico</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -182,8 +328,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29769444444444443"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.297694444444444"/>
+          <c:y val="0.0416666666666667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -211,7 +357,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -270,22 +416,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2999</c:v>
+                  <c:v>2999.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5200</c:v>
+                  <c:v>5200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,22 +443,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5485</c:v>
+                  <c:v>5485.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14891</c:v>
+                  <c:v>14891.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33579</c:v>
+                  <c:v>33579.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33157</c:v>
+                  <c:v>33157.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,22 +514,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2999</c:v>
+                  <c:v>2999.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5200</c:v>
+                  <c:v>5200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,22 +541,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5485</c:v>
+                  <c:v>5485.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14891</c:v>
+                  <c:v>14891.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33579</c:v>
+                  <c:v>33579.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33157</c:v>
+                  <c:v>33157.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,22 +612,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2999</c:v>
+                  <c:v>2999.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5200</c:v>
+                  <c:v>5200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,22 +639,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5485</c:v>
+                  <c:v>5485.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14891</c:v>
+                  <c:v>14891.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33579</c:v>
+                  <c:v>33579.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33157</c:v>
+                  <c:v>33157.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,22 +710,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2999</c:v>
+                  <c:v>2999.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5200</c:v>
+                  <c:v>5200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,22 +737,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>672</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5485</c:v>
+                  <c:v>5485.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14891</c:v>
+                  <c:v>14891.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33579</c:v>
+                  <c:v>33579.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33157</c:v>
+                  <c:v>33157.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,11 +767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1436886560"/>
-        <c:axId val="1436889280"/>
+        <c:axId val="2124822080"/>
+        <c:axId val="2124060256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1436886560"/>
+        <c:axId val="2124822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +843,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -735,15 +881,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436889280"/>
+        <c:crossAx val="2124060256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1436889280"/>
+        <c:axId val="2124060256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +975,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -861,10 +1007,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436886560"/>
+        <c:crossAx val="2124822080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -902,7 +1048,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -916,7 +1062,346 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Analisis Gráfico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3423.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25123.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>258573.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.587273E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.04505625E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.712847225E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2110553904"/>
+        <c:axId val="-2123258688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2110553904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2123258688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2123258688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110553904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -953,7 +1438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1092,22 +1577,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>666</c:v>
+                  <c:v>666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,12 +1607,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1257912880"/>
-        <c:axId val="1257904176"/>
-        <c:axId val="1326898032"/>
+        <c:axId val="2097753584"/>
+        <c:axId val="2124939504"/>
+        <c:axId val="2099047616"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="1257912880"/>
+        <c:axId val="2097753584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,10 +1652,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257904176"/>
+        <c:crossAx val="2124939504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1257904176"/>
+        <c:axId val="2124939504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,15 +1711,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257912880"/>
+        <c:crossAx val="2097753584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1326898032"/>
+        <c:axId val="2099047616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,10 +1758,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257904176"/>
+        <c:crossAx val="2124939504"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1313,7 +1798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1365,6 +1850,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -1887,6 +2412,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="311">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2438,6 +3479,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2482,12 +3553,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:C8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A2:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Nombre de Archivo" dataDxfId="2"/>
-    <tableColumn id="2" name="Numero de registro de entradas" dataDxfId="1"/>
-    <tableColumn id="3" name="Tiempo Milisegundos" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A2:E8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Nombre de Archivo" dataDxfId="4"/>
+    <tableColumn id="2" name="Numero de registro de entradas" dataDxfId="3"/>
+    <tableColumn id="3" name="Tiempo Milisegundos" dataDxfId="2"/>
+    <tableColumn id="4" name="Numero de registro de entradas2" dataDxfId="1"/>
+    <tableColumn id="5" name="Numero de Iteraciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2756,21 +3829,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2780,8 +3853,14 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2791,9 +3870,14 @@
       <c r="C3" s="2">
         <v>532</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3423</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2803,9 +3887,14 @@
       <c r="C4" s="2">
         <v>672</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>150</v>
+      </c>
+      <c r="E4" s="7">
+        <v>25123</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2815,9 +3904,14 @@
       <c r="C5" s="2">
         <v>5485</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>500</v>
+      </c>
+      <c r="E5" s="6">
+        <v>258573</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2827,9 +3921,14 @@
       <c r="C6" s="2">
         <v>14891</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2587273</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2839,9 +3938,15 @@
       <c r="C7" s="2">
         <v>33579</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>2999</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(3007.5*3007.5)</f>
+        <v>9045056.25</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2851,45 +3956,52 @@
       <c r="C8" s="2">
         <v>33157</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="8">
+        <f>(5208.5*5208.5)</f>
+        <v>27128472.25</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -2905,9 +4017,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -2915,7 +4027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +4035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +4043,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -2939,7 +4051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -2947,7 +4059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +4067,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>8</v>
       </c>
